--- a/Control descarga.xlsx
+++ b/Control descarga.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\Descarga Mis Retenciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos Uipath\Descarga-Mis-Retenciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F26D954-7BF5-4ED4-B10D-CDD35348C031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC4952D-B2AA-4FBC-BAD8-B441F6B406FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Cliente</t>
   </si>
@@ -48,6 +48,9 @@
   </si>
   <si>
     <t>CUIT + Periodo</t>
+  </si>
+  <si>
+    <t>767 Aduanera</t>
   </si>
 </sst>
 </file>
@@ -380,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F69"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="47.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -393,9 +396,10 @@
     <col min="3" max="3" width="9.85546875" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -413,6 +417,9 @@
       </c>
       <c r="F1" s="1">
         <v>216</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
